--- a/Playbooks/Media Playbook Temaplate v1.3.xlsx
+++ b/Playbooks/Media Playbook Temaplate v1.3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6948" yWindow="-27060" windowWidth="48156" windowHeight="27336" tabRatio="775" activeTab="3"/>
+    <workbookView xWindow="-6948" yWindow="-27060" windowWidth="48156" windowHeight="27336" tabRatio="775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0.AME Concepts" sheetId="6" r:id="rId1"/>
@@ -258,10 +258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="538">
-  <si>
-    <t>Support concerné</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="536">
   <si>
     <t>iOS</t>
   </si>
@@ -356,12 +353,6 @@
     <t>myapp://homepage</t>
   </si>
   <si>
-    <t>In app(category interstial) out of app</t>
-  </si>
-  <si>
-    <t>appstore/myappp</t>
-  </si>
-  <si>
     <t>If no tutorial inside the app</t>
   </si>
   <si>
@@ -416,18 +407,9 @@
     <t>myapp://pagecategory</t>
   </si>
   <si>
-    <t>hors app</t>
-  </si>
-  <si>
-    <t>Hors app poll</t>
-  </si>
-  <si>
     <t>Define what is an inactive for you</t>
   </si>
   <si>
-    <t>Hors app</t>
-  </si>
-  <si>
     <t>Awake Inactive</t>
   </si>
   <si>
@@ -437,9 +419,6 @@
     <t>Number of Download</t>
   </si>
   <si>
-    <t>How many users are optin?</t>
-  </si>
-  <si>
     <t>Number of user accept push notification</t>
   </si>
   <si>
@@ -479,12 +458,6 @@
     <t>Number of unique user per month</t>
   </si>
   <si>
-    <t>How many of Actives users ?</t>
-  </si>
-  <si>
-    <t>How many of inactives users ?</t>
-  </si>
-  <si>
     <t>How many page they seen per session</t>
   </si>
   <si>
@@ -545,15 +518,9 @@
     <t>Basic integration</t>
   </si>
   <si>
-    <t>How to Integrate AME on….(iOS/Android/Windows/Windows Phone/Blackberry/Web)</t>
-  </si>
-  <si>
     <t>Test Basic integration</t>
   </si>
   <si>
-    <t>How to Test AME Intgration on….(iOS/Android/Windows/Windows Phone/Blackberry/Web)</t>
-  </si>
-  <si>
     <t xml:space="preserve">For iOS only: </t>
   </si>
   <si>
@@ -578,18 +545,12 @@
     <t>In app push</t>
   </si>
   <si>
-    <t>How to Use AME Reach Features on… (iOS/Android/Windows/Windows Phone/Web)</t>
-  </si>
-  <si>
     <t>Customized in app Push Categories</t>
   </si>
   <si>
     <t>Number of Categories*</t>
   </si>
   <si>
-    <t>How to Integrate AME Reach on (iOS/Android/Windows/Windows Phone/Web)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &gt;&gt;&gt; How to customize campaigns</t>
   </si>
   <si>
@@ -611,9 +572,6 @@
     <t>Tag Plan Integration</t>
   </si>
   <si>
-    <t>How to Use the AME API on….(iOS/Android/Windows/Windows Phone/Blackberry/Web)</t>
-  </si>
-  <si>
     <t>Geofencing</t>
   </si>
   <si>
@@ -894,9 +852,6 @@
   </si>
   <si>
     <t>How many users watch videos</t>
-  </si>
-  <si>
-    <t>How many article is consulted from the home page/categories</t>
   </si>
   <si>
     <t>ACTIVITY</t>
@@ -1437,9 +1392,6 @@
     <t>During a Session, an application may crash.</t>
   </si>
   <si>
-    <t>CRASHES are automatically collected in the Crashes section of Analtyics. User Path and crash details, including Stack Traces, are provided.</t>
-  </si>
-  <si>
     <t>App info format</t>
   </si>
   <si>
@@ -1503,9 +1455,6 @@
     <t>User article views</t>
   </si>
   <si>
-    <t>What categories tend to be user favortites</t>
-  </si>
-  <si>
     <t>Users views for a category</t>
   </si>
   <si>
@@ -1599,16 +1548,10 @@
     <t>Profile Criteria</t>
   </si>
   <si>
-    <t>Webview</t>
-  </si>
-  <si>
     <t>Second session for user</t>
   </si>
   <si>
     <t>Fourth user session</t>
-  </si>
-  <si>
-    <t>Behaviorial/Personalization</t>
   </si>
   <si>
     <t>Unsatisfied Campaign / Inactive Campaign</t>
@@ -1641,12 +1584,6 @@
     <t>New unique users</t>
   </si>
   <si>
-    <t>Users who accept WelcomeP2_PushSystem/user who have more than 5 connections, who decline WelcomeP2_PushSystem and downloaded the app in the last 20 days</t>
-  </si>
-  <si>
-    <t>User who have at least 10 connections, and have viewed three different categories</t>
-  </si>
-  <si>
     <t>Each Wednesday</t>
   </si>
   <si>
@@ -1752,51 +1689,6 @@
     <t>Did you know we have a Money category? Click to take a quick tour.</t>
   </si>
   <si>
-    <t>User answered yes at the WelcomeP5_DiscoverTour and never viewed the tech category / Inactives : User has not created a session in 2 months,  never viewed the tech category, and answered yes at Inactive_Push3  / User answered yes to Unsatisfied_Push5.1</t>
-  </si>
-  <si>
-    <t>User Answered yes at the WelcomeP5_DiscoverTour and has not viewed the featured category / Inactive User: has not created a session in 2 months, never viewed featured category, and answered yes at Inactive_Push3  / Unsatisfied User: answered yes to Unsatisfied_Push5.1</t>
-  </si>
-  <si>
-    <t>User answered yes at the WelcomeP5_discovertour and never viewed the travel category/ Inactives : User has not created a session in 2 months, never viewed the travel category, and answered yes at Inactive_Push3  / User answered yes Unsatisfied_Push5.1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User answered yes at the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WelcomeP5_discovertour and never viewed the Sports category/ Inactives : User has not created a session in 2 months, never seen sport category and answer yes at Inactive_push3  / User say yes Unsatisfied_push5.1</t>
-    </r>
-  </si>
-  <si>
-    <t>User answered yes to WelcomeP5_DiscoverTour and never viewed the entertainment category/ Inactives : User has not created a session in 2 months, never viewed the entertainment category, and answered yes at Inactive_Push3  / User answered yes Unsatisfied_Push5.1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User answered yes to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WelcomeP5_DiscoverTour and never viewed the Money category/ Inactives : User has not created a session in 2 months, never viewed the Money category, and answered yes at Inactive_Push3  / User answered yes to Unsatisfied_Push5.1</t>
-    </r>
-  </si>
-  <si>
-    <t>User has session duration that is greater than 2 min. twice a week for the last 2 months, with an account set up and viewed feature category.</t>
-  </si>
-  <si>
     <t>appstore/myapp/rating</t>
   </si>
   <si>
@@ -1872,9 +1764,6 @@
     <t>Update users regarding bug fixes</t>
   </si>
   <si>
-    <t>Be proactive driving rentention</t>
-  </si>
-  <si>
     <t>Promote new app features</t>
   </si>
   <si>
@@ -1891,9 +1780,6 @@
   </si>
   <si>
     <t>Users who answer no to Introduce_Rating_Push</t>
-  </si>
-  <si>
-    <t>Users who answer no to the Introduce_Rating_push and did not answer to the Unsatisfied_Push1</t>
   </si>
   <si>
     <t>Users who answer "1) Need refresher content" to the Unsatisfied_Push1</t>
@@ -1932,12 +1818,6 @@
     <t>Users who answer "X) Another push redirection" to the Unsatisfied_push1 and used the features at least once</t>
   </si>
   <si>
-    <t>User who answers 5-10 to Unsatisfied_push4.*</t>
-  </si>
-  <si>
-    <t>User who answers 1-4 to Unsatisfied_Push4.*</t>
-  </si>
-  <si>
     <t>Identify active users for premium service offer and promote them as evangelists</t>
   </si>
   <si>
@@ -2019,12 +1899,6 @@
     </r>
   </si>
   <si>
-    <t>What do you think about (specific subect)?</t>
-  </si>
-  <si>
-    <t>Do not feel left out at the office - here is summary of whats happening this weekend</t>
-  </si>
-  <si>
     <t>Weekly Retention Campaign</t>
   </si>
   <si>
@@ -2041,9 +1915,6 @@
   </si>
   <si>
     <t>Inactive_Push3</t>
-  </si>
-  <si>
-    <t>We don't want you to miss the lastest {category name} info.</t>
   </si>
   <si>
     <t xml:space="preserve">We hope you are well?  We haven't heard from you in a few months now. Please how we can address any concerns you have. </t>
@@ -2252,6 +2123,105 @@
       </rPr>
       <t xml:space="preserve"> Discover news category</t>
     </r>
+  </si>
+  <si>
+    <t>CRASHES are automatically collected in the Crashes section of Analytics. User Path and crash details, including Stack Traces, are provided.</t>
+  </si>
+  <si>
+    <t>How to Integrate AME on….(iOS/Android/Windows/Windows Phone)</t>
+  </si>
+  <si>
+    <t>How to Test AME Intgration on….(iOS/Android/Windows/Windows Phone)</t>
+  </si>
+  <si>
+    <t>How to Use AME Reach Features on… (iOS/Android/Windows/Windows Phone)</t>
+  </si>
+  <si>
+    <t>How to Integrate AME Reach on (iOS/Android/Windows/Windows Phone)</t>
+  </si>
+  <si>
+    <t>How to Use the AME API on….(iOS/Android/Windows/Windows Phone)</t>
+  </si>
+  <si>
+    <t>How many users are opt in?</t>
+  </si>
+  <si>
+    <t>How many Actives users ?</t>
+  </si>
+  <si>
+    <t>How many inactive users ?</t>
+  </si>
+  <si>
+    <t>What categories tend to be user favorites</t>
+  </si>
+  <si>
+    <t>Be proactive driving retention</t>
+  </si>
+  <si>
+    <t>What do you think about (specific subject)?</t>
+  </si>
+  <si>
+    <t>Do not feel left out at the office - here is summary of what's happening this weekend</t>
+  </si>
+  <si>
+    <t>We don't want you to miss the latest {category name} info.</t>
+  </si>
+  <si>
+    <t>Support concern</t>
+  </si>
+  <si>
+    <t>Web view</t>
+  </si>
+  <si>
+    <t>System/Out-of-app notifications</t>
+  </si>
+  <si>
+    <t>System/Out-of-app notification poll</t>
+  </si>
+  <si>
+    <t>Users who accept WelcomeP2_PushSystem / users who have more than 5 connections, declined WelcomeP2_PushSystem, and downloaded the app in the last 20 days</t>
+  </si>
+  <si>
+    <t>Users who have at least 10 connections, and have viewed three different categories</t>
+  </si>
+  <si>
+    <t>Users that answered yes at the WelcomeP5_discovertour and never viewed the travel category/ Inactive: Users that have not created a session in 2 months, never viewed the travel category, and answered yes at Inactive_Push3  / Users that answered yes Unsatisfied_Push5.1</t>
+  </si>
+  <si>
+    <t>Users that answered yes at the WelcomeP5_DiscoverTour and did not view a featured category / Inactive: Users that have not created a session in 2 months, never viewed featured categories, and answered yes at Inactive_Push3  / Unsatisfied User: answered yes to Unsatisfied_Push5.1</t>
+  </si>
+  <si>
+    <t>Users who answered yes at the WelcomeP5_DiscoverTour and never viewed the tech category / Inactive:  Users that have not created a session in 2 months,  never viewed the tech category, and answered yes at Inactive_Push3  / Users that answered yes to Unsatisfied_Push5.1</t>
+  </si>
+  <si>
+    <t>Users who answered yes to WelcomeP5_DiscoverTour and never viewed the entertainment category/ Inactive : User that have not created a session in 2 months, never viewed the entertainment category, and answered yes at Inactive_Push3  / Users who answered yes Unsatisfied_Push5.1</t>
+  </si>
+  <si>
+    <t>Users who answered yes at the WelcomeP5_discovertour and never viewed the Sports category/ Inactive Users that have not created a session in 2 months, never seen sport category and answered yes at Inactive_push3  / Users who answered yes Unsatisfied_push5.1</t>
+  </si>
+  <si>
+    <t>Users who answered yes to WelcomeP5_DiscoverTour and never viewed the Money category/ Inactive: Users that have not created a session in 2 months, never viewed the Money category, and answered yes at Inactive_Push3  / Users who answered yes to Unsatisfied_Push5.1</t>
+  </si>
+  <si>
+    <t>User's session duration that is greater than 2 min. twice a week for the last 2 months, has an account set up, and have viewed feature categories.</t>
+  </si>
+  <si>
+    <t>Users who answer no to the Introduce_Rating_push and did not answer the Unsatisfied_Push1</t>
+  </si>
+  <si>
+    <t>User who answer 5-10 to Unsatisfied_push4.*</t>
+  </si>
+  <si>
+    <t>User who answer 1-4 to Unsatisfied_Push4.*</t>
+  </si>
+  <si>
+    <t>Behavioral/Personalization</t>
+  </si>
+  <si>
+    <t>appstore/myapp</t>
+  </si>
+  <si>
+    <t>How many articles viewed from the home page/categories</t>
   </si>
 </sst>
 </file>
@@ -4244,15 +4214,6 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="23" xfId="95" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4310,6 +4271,9 @@
     <xf numFmtId="0" fontId="28" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4321,6 +4285,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4334,10 +4304,10 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="15" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12634,8 +12604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AT110"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6"/>
@@ -12658,7 +12628,7 @@
   <sheetData>
     <row r="2" spans="2:46" ht="15" customHeight="1">
       <c r="G2" s="109" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H2" s="109"/>
       <c r="I2" s="109"/>
@@ -12677,7 +12647,7 @@
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
       <c r="X3" s="196" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="Y3" s="196"/>
       <c r="Z3" s="196"/>
@@ -12704,7 +12674,7 @@
     </row>
     <row r="4" spans="2:46" ht="27" customHeight="1">
       <c r="B4" s="210" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -12721,7 +12691,7 @@
       <c r="O4" s="49"/>
       <c r="P4" s="50"/>
       <c r="Q4" s="213" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="AD4" s="110"/>
       <c r="AE4" s="110"/>
@@ -12800,7 +12770,7 @@
       <c r="Y6" s="124"/>
       <c r="Z6" s="124"/>
       <c r="AA6" s="125" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AB6" s="124"/>
       <c r="AC6" s="124"/>
@@ -12809,7 +12779,7 @@
       <c r="AF6" s="128"/>
       <c r="AG6" s="128"/>
       <c r="AH6" s="199" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="AI6" s="199"/>
       <c r="AJ6" s="128"/>
@@ -12819,7 +12789,7 @@
       <c r="AN6" s="129"/>
       <c r="AO6" s="129"/>
       <c r="AP6" s="130" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="AQ6" s="129"/>
       <c r="AR6" s="129"/>
@@ -12830,7 +12800,7 @@
       <c r="B7" s="211"/>
       <c r="C7" s="51"/>
       <c r="D7" s="119" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E7" s="119"/>
       <c r="F7" s="119"/>
@@ -12873,7 +12843,7 @@
       <c r="B8" s="211"/>
       <c r="C8" s="54"/>
       <c r="D8" s="208" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E8" s="208"/>
       <c r="F8" s="208"/>
@@ -12916,7 +12886,7 @@
       <c r="B9" s="211"/>
       <c r="C9" s="54"/>
       <c r="D9" s="208" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="E9" s="208"/>
       <c r="F9" s="208"/>
@@ -13094,7 +13064,7 @@
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
       <c r="O13" s="217" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="P13" s="218"/>
       <c r="Q13" s="214"/>
@@ -13386,7 +13356,7 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="214"/>
       <c r="S20" s="112" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="U20" s="113"/>
       <c r="W20" s="111"/>
@@ -13418,27 +13388,27 @@
       <c r="B21" s="211"/>
       <c r="C21" s="51"/>
       <c r="D21" s="52" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="116" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="G21" s="52"/>
       <c r="H21" s="52" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="I21" s="52"/>
       <c r="J21" s="52" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="K21" s="52"/>
       <c r="L21" s="52" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="M21" s="52"/>
       <c r="N21" s="52" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="O21" s="52"/>
       <c r="P21" s="53"/>
@@ -13553,7 +13523,7 @@
       <c r="B24" s="211"/>
       <c r="C24" s="51"/>
       <c r="D24" s="208" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="E24" s="208"/>
       <c r="F24" s="208"/>
@@ -13596,7 +13566,7 @@
       <c r="B25" s="211"/>
       <c r="C25" s="51"/>
       <c r="D25" s="208" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E25" s="208"/>
       <c r="F25" s="208"/>
@@ -13732,7 +13702,7 @@
       <c r="M28" s="56"/>
       <c r="N28" s="52"/>
       <c r="O28" s="217" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="P28" s="218"/>
       <c r="Q28" s="214"/>
@@ -14133,7 +14103,7 @@
       <c r="B38" s="211"/>
       <c r="C38" s="51"/>
       <c r="D38" s="208" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E38" s="208"/>
       <c r="F38" s="208"/>
@@ -14176,7 +14146,7 @@
       <c r="B39" s="211"/>
       <c r="C39" s="51"/>
       <c r="D39" s="208" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="E39" s="208"/>
       <c r="F39" s="208"/>
@@ -14233,7 +14203,7 @@
       <c r="P40" s="53"/>
       <c r="Q40" s="214"/>
       <c r="S40" s="197" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="T40" s="197"/>
       <c r="U40" s="197"/>
@@ -14278,7 +14248,7 @@
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
       <c r="O41" s="217" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="P41" s="218"/>
       <c r="Q41" s="214"/>
@@ -14730,7 +14700,7 @@
       <c r="B52" s="211"/>
       <c r="C52" s="51"/>
       <c r="D52" s="208" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E52" s="208"/>
       <c r="F52" s="208"/>
@@ -14773,7 +14743,7 @@
       <c r="B53" s="211"/>
       <c r="C53" s="51"/>
       <c r="D53" s="208" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="E53" s="208"/>
       <c r="F53" s="208"/>
@@ -14827,7 +14797,7 @@
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
       <c r="O54" s="217" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="P54" s="218"/>
       <c r="Q54" s="214"/>
@@ -15078,7 +15048,7 @@
       <c r="P60" s="218"/>
       <c r="Q60" s="214"/>
       <c r="S60" s="198" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="T60" s="198"/>
       <c r="U60" s="198"/>
@@ -15324,7 +15294,7 @@
       <c r="B66" s="211"/>
       <c r="C66" s="51"/>
       <c r="D66" s="208" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E66" s="209"/>
       <c r="F66" s="209"/>
@@ -15367,7 +15337,7 @@
       <c r="B67" s="211"/>
       <c r="C67" s="51"/>
       <c r="D67" s="208" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E67" s="209"/>
       <c r="F67" s="209"/>
@@ -15503,7 +15473,7 @@
       <c r="M70" s="52"/>
       <c r="N70" s="52"/>
       <c r="O70" s="217" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="P70" s="218"/>
       <c r="Q70" s="214"/>
@@ -15904,7 +15874,7 @@
       <c r="B80" s="211"/>
       <c r="C80" s="51"/>
       <c r="D80" s="208" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E80" s="209"/>
       <c r="F80" s="209"/>
@@ -15917,7 +15887,7 @@
       <c r="M80" s="209"/>
       <c r="N80" s="209"/>
       <c r="O80" s="217" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="P80" s="218"/>
       <c r="Q80" s="214"/>
@@ -15949,7 +15919,7 @@
       <c r="B81" s="211"/>
       <c r="C81" s="51"/>
       <c r="D81" s="208" t="s">
-        <v>351</v>
+        <v>503</v>
       </c>
       <c r="E81" s="209"/>
       <c r="F81" s="209"/>
@@ -16048,7 +16018,7 @@
       <c r="P83" s="218"/>
       <c r="Q83" s="214"/>
       <c r="S83" s="123" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="W83" s="122"/>
       <c r="X83" s="127"/>
@@ -16522,7 +16492,7 @@
       <c r="B96" s="66"/>
       <c r="C96" s="121"/>
       <c r="D96" s="202" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E96" s="202"/>
       <c r="F96" s="202"/>
@@ -16604,36 +16574,36 @@
       <c r="B98" s="66"/>
       <c r="C98" s="121"/>
       <c r="D98" s="203" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E98" s="203"/>
       <c r="F98" s="203" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G98" s="203"/>
       <c r="H98" s="67" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="I98" s="67" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="J98" s="67" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="K98" s="67" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="L98" s="67" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="M98" s="67" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="N98" s="67" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="O98" s="67" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="P98" s="66"/>
     </row>
@@ -16658,7 +16628,7 @@
       <c r="B100" s="66"/>
       <c r="C100" s="121"/>
       <c r="D100" s="200" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E100" s="201"/>
       <c r="F100" s="204"/>
@@ -16677,7 +16647,7 @@
       <c r="B101" s="66"/>
       <c r="C101" s="121"/>
       <c r="D101" s="200" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E101" s="201"/>
       <c r="F101" s="206"/>
@@ -16696,16 +16666,16 @@
       <c r="B102" s="66"/>
       <c r="C102" s="121"/>
       <c r="D102" s="200" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E102" s="201"/>
       <c r="F102" s="200" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G102" s="201"/>
       <c r="H102" s="73"/>
       <c r="I102" s="72" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J102" s="71"/>
       <c r="K102" s="71"/>
@@ -16719,7 +16689,7 @@
       <c r="B103" s="66"/>
       <c r="C103" s="121"/>
       <c r="D103" s="200" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E103" s="201"/>
       <c r="F103" s="200">
@@ -16742,16 +16712,16 @@
       <c r="B104" s="66"/>
       <c r="C104" s="121"/>
       <c r="D104" s="200" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E104" s="201"/>
       <c r="F104" s="200" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G104" s="201"/>
       <c r="H104" s="73"/>
       <c r="I104" s="72" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="J104" s="71"/>
       <c r="K104" s="71"/>
@@ -16765,16 +16735,16 @@
       <c r="B105" s="66"/>
       <c r="C105" s="121"/>
       <c r="D105" s="200" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E105" s="201"/>
       <c r="F105" s="200" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G105" s="201"/>
       <c r="H105" s="73"/>
       <c r="I105" s="72" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J105" s="71"/>
       <c r="K105" s="71"/>
@@ -16788,18 +16758,18 @@
       <c r="B106" s="66"/>
       <c r="C106" s="121"/>
       <c r="D106" s="200" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E106" s="201"/>
       <c r="F106" s="200" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G106" s="201"/>
       <c r="H106" s="72" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="I106" s="72" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J106" s="71"/>
       <c r="K106" s="71"/>
@@ -16922,7 +16892,7 @@
   <dimension ref="B1:L78"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15"/>
@@ -16945,7 +16915,7 @@
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
       <c r="F2" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -16962,22 +16932,22 @@
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15" customHeight="1">
       <c r="B7" s="4" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="J8" s="8"/>
     </row>
@@ -16989,7 +16959,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="219" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H10" s="219"/>
       <c r="I10" s="10"/>
@@ -17004,10 +16974,10 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
@@ -17017,7 +16987,7 @@
     <row r="12" spans="2:12" ht="21">
       <c r="B12" s="17"/>
       <c r="C12" s="220" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D12" s="221"/>
       <c r="E12" s="221"/>
@@ -17041,14 +17011,14 @@
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -17059,7 +17029,7 @@
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="25" t="s">
-        <v>95</v>
+        <v>504</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -17085,14 +17055,14 @@
       <c r="B17" s="17"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -17103,7 +17073,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="19"/>
       <c r="D18" s="25" t="s">
-        <v>97</v>
+        <v>505</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -17131,7 +17101,7 @@
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -17146,14 +17116,14 @@
       <c r="B21" s="17"/>
       <c r="C21" s="19"/>
       <c r="E21" s="22" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -17164,14 +17134,14 @@
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="E22" s="22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -17182,7 +17152,7 @@
       <c r="B23" s="17"/>
       <c r="C23" s="19"/>
       <c r="D23" s="25" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -17196,7 +17166,7 @@
     <row r="24" spans="2:12" ht="21">
       <c r="B24" s="17"/>
       <c r="C24" s="220" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="D24" s="221"/>
       <c r="E24" s="221"/>
@@ -17220,15 +17190,15 @@
       <c r="B26" s="17"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -17239,7 +17209,7 @@
       <c r="B27" s="17"/>
       <c r="C27" s="19"/>
       <c r="D27" s="25" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -17267,15 +17237,15 @@
       <c r="B29" s="17"/>
       <c r="C29" s="19"/>
       <c r="D29" s="22" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
@@ -17286,7 +17256,7 @@
       <c r="B30" s="17"/>
       <c r="C30" s="19"/>
       <c r="D30" s="25" t="s">
-        <v>106</v>
+        <v>506</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -17314,15 +17284,15 @@
       <c r="B32" s="17"/>
       <c r="C32" s="19"/>
       <c r="D32" s="22" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="18"/>
@@ -17332,14 +17302,14 @@
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
       <c r="E33" s="22" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="23">
         <v>3</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -17350,7 +17320,7 @@
       <c r="B34" s="17"/>
       <c r="C34" s="19"/>
       <c r="D34" s="25" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -17366,7 +17336,7 @@
       <c r="C35" s="19"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -17393,15 +17363,15 @@
       <c r="B37" s="17"/>
       <c r="C37" s="19"/>
       <c r="D37" s="22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20"/>
@@ -17412,7 +17382,7 @@
       <c r="B38" s="17"/>
       <c r="C38" s="19"/>
       <c r="D38" s="25" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -17428,7 +17398,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -17455,15 +17425,15 @@
       <c r="B41" s="17"/>
       <c r="C41" s="19"/>
       <c r="D41" s="22" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -17474,7 +17444,7 @@
       <c r="B42" s="17"/>
       <c r="C42" s="19"/>
       <c r="D42" s="25" t="s">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -17490,7 +17460,7 @@
       <c r="C43" s="19"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
@@ -17517,15 +17487,15 @@
       <c r="B45" s="17"/>
       <c r="C45" s="19"/>
       <c r="D45" s="22" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -17537,14 +17507,14 @@
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="23">
         <v>5</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -17567,7 +17537,7 @@
     <row r="48" spans="2:12" ht="21">
       <c r="B48" s="17"/>
       <c r="C48" s="220" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D48" s="221"/>
       <c r="E48" s="221"/>
@@ -17596,15 +17566,15 @@
       <c r="B50" s="17"/>
       <c r="C50" s="19"/>
       <c r="D50" s="22" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="G50" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -17615,7 +17585,7 @@
       <c r="B51" s="17"/>
       <c r="C51" s="19"/>
       <c r="D51" s="25" t="s">
-        <v>117</v>
+        <v>508</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
@@ -17641,15 +17611,15 @@
       <c r="B53" s="17"/>
       <c r="C53" s="19"/>
       <c r="D53" s="22" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -17660,7 +17630,7 @@
       <c r="B54" s="17"/>
       <c r="C54" s="19"/>
       <c r="D54" s="25" t="s">
-        <v>95</v>
+        <v>504</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -17675,7 +17645,7 @@
       <c r="B55" s="17"/>
       <c r="C55" s="19"/>
       <c r="E55" s="25" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
@@ -17702,15 +17672,15 @@
       <c r="B57" s="17"/>
       <c r="C57" s="19"/>
       <c r="D57" s="22" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
       <c r="G57" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -17721,7 +17691,7 @@
       <c r="B58" s="17"/>
       <c r="C58" s="19"/>
       <c r="D58" s="25" t="s">
-        <v>95</v>
+        <v>504</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -17736,7 +17706,7 @@
       <c r="B59" s="17"/>
       <c r="C59" s="19"/>
       <c r="E59" s="25" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
@@ -17762,7 +17732,7 @@
     <row r="61" spans="2:12" ht="21">
       <c r="B61" s="17"/>
       <c r="C61" s="220" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D61" s="221"/>
       <c r="E61" s="221"/>
@@ -17786,15 +17756,15 @@
       <c r="B63" s="17"/>
       <c r="C63" s="19"/>
       <c r="D63" s="22" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
@@ -17818,15 +17788,15 @@
       <c r="B65" s="17"/>
       <c r="C65" s="19"/>
       <c r="D65" s="22" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
       <c r="G65" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -17837,7 +17807,7 @@
       <c r="B66" s="17"/>
       <c r="C66" s="19"/>
       <c r="D66" s="25" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
@@ -17853,7 +17823,7 @@
       <c r="C67" s="19"/>
       <c r="D67" s="25"/>
       <c r="E67" s="20" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
@@ -17880,15 +17850,15 @@
       <c r="B69" s="17"/>
       <c r="C69" s="19"/>
       <c r="D69" s="22" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="20"/>
@@ -17899,7 +17869,7 @@
       <c r="B70" s="17"/>
       <c r="C70" s="19"/>
       <c r="D70" s="25" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
@@ -18038,8 +18008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4"/>
@@ -18052,646 +18022,646 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42">
       <c r="A1" s="131" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B1" s="132" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C1" s="132" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.1" customHeight="1">
       <c r="A2" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C2" s="94" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.1" customHeight="1">
       <c r="A3" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B3" s="94" t="s">
-        <v>59</v>
+        <v>509</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D3" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.1" customHeight="1">
       <c r="A4" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C4" s="94" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.1" customHeight="1">
       <c r="A5" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B5" s="94" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.1" customHeight="1">
       <c r="A6" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B6" s="94" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1">
       <c r="A7" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B7" s="94" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C7" s="94" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1">
       <c r="A8" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1">
       <c r="A9" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C10" s="94" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D10" s="98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.1" customHeight="1">
       <c r="A11" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C11" s="94" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D11" s="98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.1" customHeight="1">
       <c r="A12" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C12" s="133" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C13" s="133" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1">
       <c r="A14" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1">
       <c r="A15" s="99" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1">
       <c r="A16" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>73</v>
+        <v>510</v>
       </c>
       <c r="C16" s="94" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1">
       <c r="A17" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B17" s="94" t="s">
-        <v>74</v>
+        <v>511</v>
       </c>
       <c r="C17" s="94" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D17" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
       <c r="A18" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B18" s="94" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1">
       <c r="A19" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B19" s="94" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C19" s="94" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1">
       <c r="A20" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1">
       <c r="A21" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B21" s="94" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C21" s="94" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.1" customHeight="1">
       <c r="A22" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C22" s="94" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.1" customHeight="1">
       <c r="A23" s="93" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B23" s="94" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C23" s="94" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D23" s="95" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1">
       <c r="A24" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B24" s="101" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1">
       <c r="A25" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B25" s="102" t="s">
-        <v>373</v>
+        <v>512</v>
       </c>
       <c r="C25" s="102" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
       <c r="A26" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C26" s="105" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D26" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B27" s="134" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C27" s="102" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1">
       <c r="A28" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B28" s="102" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1">
       <c r="A29" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B29" s="102" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1">
       <c r="A30" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1">
       <c r="A31" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B31" s="102" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1">
       <c r="A32" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1">
       <c r="A33" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B33" s="102" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C33" s="102" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D33" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
       <c r="A34" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B34" s="102" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1">
       <c r="A35" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B35" s="102" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D35" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1">
       <c r="A36" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B36" s="102" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1">
       <c r="A37" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B37" s="102" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D37" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1">
       <c r="A38" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B38" s="108" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1">
       <c r="A39" s="100" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B39" s="108" t="s">
-        <v>212</v>
+        <v>535</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D39" s="106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1">
       <c r="A40" s="135" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B40" s="136" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C40" s="137" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D40" s="138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1">
       <c r="A41" s="135" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B41" s="136" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C41" s="137" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D41" s="138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1">
       <c r="A42" s="135" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B42" s="136" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C42" s="137" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D42" s="138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
       <c r="A43" s="135" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B43" s="139" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="C43" s="140" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D43" s="141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1">
       <c r="A44" s="135" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B44" s="139" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C44" s="140" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D44" s="141" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.6">
       <c r="A45" s="135" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B45" s="137" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="C45" s="137" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D45" s="138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.2" thickBot="1">
       <c r="A46" s="142" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B46" s="137" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="C46" s="137" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D46" s="138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -18717,9 +18687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C15" sqref="C15:C24"/>
+      <selection pane="topRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
@@ -18743,1108 +18713,1108 @@
   <sheetData>
     <row r="1" spans="1:15" s="158" customFormat="1" ht="37.200000000000003" thickBot="1">
       <c r="A1" s="163" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="242"/>
-      <c r="D1" s="242"/>
-      <c r="E1" s="242"/>
-      <c r="F1" s="242"/>
-      <c r="G1" s="242"/>
-      <c r="H1" s="242"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="244"/>
+        <v>12</v>
+      </c>
+      <c r="B1" s="238" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="241" t="s">
+        <v>517</v>
+      </c>
+      <c r="K1" s="241"/>
       <c r="L1" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="163" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" s="163" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="34.200000000000003" customHeight="1" thickBot="1">
       <c r="A2" s="160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="164" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="164" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="164" t="s">
+      <c r="E2" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="164" t="s">
+      <c r="F2" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="G2" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="160" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" s="160" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="I2" s="167" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="J2" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="168" t="s">
-        <v>2</v>
-      </c>
       <c r="L2" s="167" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="M2" s="160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N2" s="171"/>
       <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" s="156" customFormat="1" ht="46.8">
-      <c r="A3" s="235" t="s">
-        <v>395</v>
-      </c>
-      <c r="B3" s="227" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="247" t="s">
-        <v>22</v>
+      <c r="A3" s="232" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="245" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="161" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E3" s="162" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="F3" s="165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J3" s="154"/>
       <c r="K3" s="154"/>
       <c r="L3" s="162" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="M3" s="162" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N3" s="170"/>
     </row>
     <row r="4" spans="1:15" s="156" customFormat="1" ht="46.8">
       <c r="A4" s="250"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
       <c r="D4" s="157" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="E4" s="152" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F4" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="154" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="153" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="154" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="154" t="s">
-        <v>20</v>
       </c>
       <c r="J4" s="154"/>
       <c r="K4" s="154"/>
       <c r="L4" s="152" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="M4" s="152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N4" s="155"/>
     </row>
     <row r="5" spans="1:15" s="156" customFormat="1" ht="62.4">
       <c r="A5" s="250"/>
-      <c r="B5" s="227"/>
-      <c r="C5" s="227"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
       <c r="D5" s="151" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="E5" s="152" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F5" s="153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="154"/>
       <c r="K5" s="154"/>
       <c r="L5" s="152" t="s">
-        <v>415</v>
+        <v>521</v>
       </c>
       <c r="M5" s="152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N5" s="155"/>
     </row>
     <row r="6" spans="1:15" s="156" customFormat="1" ht="46.8">
       <c r="A6" s="250"/>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
       <c r="D6" s="151" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="E6" s="152" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="F6" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="154" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="154" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="153" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="154" t="s">
-        <v>20</v>
       </c>
       <c r="J6" s="154"/>
       <c r="K6" s="154"/>
       <c r="L6" s="152" t="s">
-        <v>416</v>
+        <v>522</v>
       </c>
       <c r="M6" s="152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N6" s="155"/>
     </row>
     <row r="7" spans="1:15" s="156" customFormat="1" ht="78">
       <c r="A7" s="251"/>
-      <c r="B7" s="228"/>
-      <c r="C7" s="228"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
       <c r="D7" s="157" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="E7" s="152" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="F7" s="153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="153" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="I7" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J7" s="154"/>
       <c r="K7" s="154"/>
       <c r="L7" s="152" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="M7" s="152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N7" s="155"/>
     </row>
     <row r="8" spans="1:15" s="148" customFormat="1" ht="62.4">
-      <c r="A8" s="253" t="s">
-        <v>397</v>
-      </c>
-      <c r="B8" s="254" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="253" t="s">
-        <v>537</v>
+      <c r="A8" s="242" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="242" t="s">
+        <v>502</v>
       </c>
       <c r="D8" s="143" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E8" s="144" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="F8" s="144" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="G8" s="143" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="H8" s="144" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="I8" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J8" s="145"/>
       <c r="K8" s="145"/>
       <c r="L8" s="144" t="s">
-        <v>433</v>
+        <v>524</v>
       </c>
       <c r="M8" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N8" s="147"/>
     </row>
     <row r="9" spans="1:15" s="148" customFormat="1" ht="62.4">
-      <c r="A9" s="233"/>
-      <c r="B9" s="224"/>
-      <c r="C9" s="245"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="243"/>
       <c r="D9" s="143" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E9" s="144" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="F9" s="146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="143" t="s">
-        <v>399</v>
-      </c>
-      <c r="H9" s="146" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="144" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="145" t="s">
         <v>32</v>
-      </c>
-      <c r="I9" s="145" t="s">
-        <v>35</v>
       </c>
       <c r="J9" s="145"/>
       <c r="K9" s="145"/>
       <c r="L9" s="144" t="s">
-        <v>432</v>
+        <v>525</v>
       </c>
       <c r="M9" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N9" s="147"/>
     </row>
     <row r="10" spans="1:15" s="148" customFormat="1" ht="62.4">
-      <c r="A10" s="233"/>
-      <c r="B10" s="224"/>
-      <c r="C10" s="245"/>
+      <c r="A10" s="230"/>
+      <c r="B10" s="247"/>
+      <c r="C10" s="243"/>
       <c r="D10" s="143" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="E10" s="144" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="143" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H10" s="144" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="I10" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J10" s="145"/>
       <c r="K10" s="145"/>
       <c r="L10" s="144" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
       <c r="M10" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N10" s="147"/>
     </row>
     <row r="11" spans="1:15" s="148" customFormat="1" ht="62.4">
-      <c r="A11" s="233"/>
-      <c r="B11" s="224"/>
-      <c r="C11" s="245"/>
+      <c r="A11" s="230"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="243"/>
       <c r="D11" s="143" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E11" s="144" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="F11" s="146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="143" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="H11" s="144" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="I11" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J11" s="145"/>
       <c r="K11" s="145"/>
       <c r="L11" s="144" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
       <c r="M11" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N11" s="147"/>
     </row>
-    <row r="12" spans="1:15" s="148" customFormat="1" ht="46.8">
-      <c r="A12" s="233"/>
-      <c r="B12" s="224"/>
-      <c r="C12" s="245"/>
+    <row r="12" spans="1:15" s="148" customFormat="1" ht="62.4">
+      <c r="A12" s="230"/>
+      <c r="B12" s="247"/>
+      <c r="C12" s="243"/>
       <c r="D12" s="143" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="E12" s="144" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="F12" s="146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="143" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="H12" s="144" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="I12" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J12" s="145"/>
       <c r="K12" s="145"/>
       <c r="L12" s="144" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="M12" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N12" s="147"/>
     </row>
     <row r="13" spans="1:15" s="148" customFormat="1" ht="62.4">
-      <c r="A13" s="233"/>
-      <c r="B13" s="224"/>
-      <c r="C13" s="245"/>
+      <c r="A13" s="230"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="243"/>
       <c r="D13" s="150" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E13" s="144" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="143" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="H13" s="144" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="I13" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J13" s="145"/>
       <c r="K13" s="145"/>
       <c r="L13" s="144" t="s">
-        <v>437</v>
+        <v>528</v>
       </c>
       <c r="M13" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N13" s="147"/>
     </row>
     <row r="14" spans="1:15" s="148" customFormat="1" ht="31.2">
-      <c r="A14" s="234"/>
-      <c r="B14" s="225"/>
-      <c r="C14" s="246"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="244"/>
       <c r="D14" s="150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="144" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="F14" s="146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="143" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="H14" s="146" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="145"/>
       <c r="K14" s="145"/>
       <c r="L14" s="144" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
       <c r="M14" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N14" s="147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="156" customFormat="1" ht="78">
-      <c r="A15" s="229" t="s">
-        <v>441</v>
-      </c>
-      <c r="B15" s="226" t="s">
-        <v>408</v>
-      </c>
-      <c r="C15" s="229" t="s">
-        <v>409</v>
+      <c r="A15" s="226" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="223" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" s="226" t="s">
+        <v>390</v>
       </c>
       <c r="D15" s="157" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="E15" s="152" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="F15" s="153" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J15" s="154"/>
       <c r="K15" s="154"/>
       <c r="L15" s="152" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="M15" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N15" s="155"/>
     </row>
     <row r="16" spans="1:15" s="156" customFormat="1" ht="46.8">
-      <c r="A16" s="235"/>
-      <c r="B16" s="227"/>
-      <c r="C16" s="230"/>
+      <c r="A16" s="232"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="227"/>
       <c r="D16" s="157" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="E16" s="152" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="F16" s="152" t="s">
-        <v>451</v>
-      </c>
-      <c r="G16" s="154" t="s">
-        <v>33</v>
+        <v>423</v>
+      </c>
+      <c r="G16" s="157" t="s">
+        <v>534</v>
       </c>
       <c r="H16" s="153" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J16" s="154"/>
       <c r="K16" s="154"/>
       <c r="L16" s="152" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="M16" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N16" s="155" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="156" customFormat="1" ht="46.8">
-      <c r="A17" s="236" t="s">
-        <v>455</v>
-      </c>
-      <c r="B17" s="227"/>
-      <c r="C17" s="230"/>
+      <c r="A17" s="233" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" s="224"/>
+      <c r="C17" s="227"/>
       <c r="D17" s="157" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="F17" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G17" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J17" s="154"/>
       <c r="K17" s="154"/>
       <c r="L17" s="152" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="M17" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N17" s="155"/>
     </row>
     <row r="18" spans="1:14" s="156" customFormat="1" ht="46.8">
-      <c r="A18" s="231"/>
-      <c r="B18" s="227"/>
-      <c r="C18" s="230"/>
+      <c r="A18" s="228"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="227"/>
       <c r="D18" s="157" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="E18" s="152" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="F18" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G18" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J18" s="154"/>
       <c r="K18" s="154"/>
       <c r="L18" s="152" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="M18" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N18" s="155"/>
     </row>
     <row r="19" spans="1:14" s="156" customFormat="1" ht="31.2">
-      <c r="A19" s="229" t="s">
-        <v>456</v>
-      </c>
-      <c r="B19" s="227"/>
-      <c r="C19" s="230"/>
+      <c r="A19" s="226" t="s">
+        <v>513</v>
+      </c>
+      <c r="B19" s="224"/>
+      <c r="C19" s="227"/>
       <c r="D19" s="157" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="E19" s="152" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="F19" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G19" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I19" s="154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J19" s="154"/>
       <c r="K19" s="154"/>
       <c r="L19" s="152" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="M19" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N19" s="155"/>
     </row>
     <row r="20" spans="1:14" s="156" customFormat="1" ht="31.2">
-      <c r="A20" s="235"/>
-      <c r="B20" s="227"/>
-      <c r="C20" s="230"/>
+      <c r="A20" s="232"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="227"/>
       <c r="D20" s="157" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="E20" s="152" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="F20" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G20" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J20" s="154"/>
       <c r="K20" s="154"/>
       <c r="L20" s="152" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="M20" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N20" s="155"/>
     </row>
     <row r="21" spans="1:14" s="156" customFormat="1" ht="31.2">
-      <c r="A21" s="237"/>
-      <c r="B21" s="227"/>
-      <c r="C21" s="230"/>
+      <c r="A21" s="234"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="227"/>
       <c r="D21" s="157" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="E21" s="152" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="F21" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G21" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21" s="154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J21" s="154"/>
       <c r="K21" s="154"/>
       <c r="L21" s="152" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="M21" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N21" s="155"/>
     </row>
     <row r="22" spans="1:14" s="156" customFormat="1" ht="46.2" customHeight="1">
-      <c r="A22" s="238" t="s">
-        <v>457</v>
-      </c>
-      <c r="B22" s="227"/>
-      <c r="C22" s="230"/>
+      <c r="A22" s="235" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="224"/>
+      <c r="C22" s="227"/>
       <c r="D22" s="157" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="E22" s="152" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="F22" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G22" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J22" s="154"/>
       <c r="K22" s="154"/>
       <c r="L22" s="152" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="M22" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N22" s="155"/>
     </row>
     <row r="23" spans="1:14" s="156" customFormat="1" ht="31.2">
-      <c r="A23" s="239"/>
-      <c r="B23" s="227"/>
-      <c r="C23" s="230"/>
+      <c r="A23" s="236"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="227"/>
       <c r="D23" s="157" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="E23" s="152" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="F23" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G23" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="153" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I23" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J23" s="154"/>
       <c r="K23" s="154"/>
       <c r="L23" s="152" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="M23" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N23" s="155"/>
     </row>
     <row r="24" spans="1:14" s="156" customFormat="1" ht="31.2">
-      <c r="A24" s="240"/>
-      <c r="B24" s="228"/>
-      <c r="C24" s="231"/>
+      <c r="A24" s="237"/>
+      <c r="B24" s="225"/>
+      <c r="C24" s="228"/>
       <c r="D24" s="157" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="E24" s="152" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="F24" s="152" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="G24" s="154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="153" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I24" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J24" s="154"/>
       <c r="K24" s="154"/>
       <c r="L24" s="152" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="M24" s="153" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N24" s="155"/>
     </row>
     <row r="25" spans="1:14" s="148" customFormat="1" ht="62.4">
-      <c r="A25" s="232" t="s">
-        <v>473</v>
-      </c>
-      <c r="B25" s="224" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="223" t="s">
-        <v>474</v>
+      <c r="A25" s="229" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" s="247" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="254" t="s">
+        <v>442</v>
       </c>
       <c r="D25" s="143" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="E25" s="144" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="F25" s="146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" s="145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I25" s="145" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="J25" s="145"/>
       <c r="K25" s="145"/>
       <c r="L25" s="144" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="M25" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N25" s="147"/>
     </row>
     <row r="26" spans="1:14" s="148" customFormat="1" ht="46.8">
-      <c r="A26" s="233"/>
-      <c r="B26" s="224"/>
-      <c r="C26" s="224"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
       <c r="D26" s="143" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="E26" s="144" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="F26" s="146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="145" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H26" s="146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I26" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="145"/>
       <c r="L26" s="144" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="M26" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N26" s="147"/>
     </row>
     <row r="27" spans="1:14" s="148" customFormat="1" ht="31.2">
-      <c r="A27" s="234"/>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
+      <c r="A27" s="231"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="248"/>
       <c r="D27" s="143" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="E27" s="144" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="F27" s="146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H27" s="146" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I27" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J27" s="145"/>
       <c r="K27" s="145"/>
       <c r="L27" s="144" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="M27" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N27" s="147"/>
     </row>
-    <row r="28" spans="1:14" s="156" customFormat="1" ht="15.6">
-      <c r="A28" s="229" t="s">
-        <v>484</v>
+    <row r="28" spans="1:14" s="156" customFormat="1" ht="31.2">
+      <c r="A28" s="226" t="s">
+        <v>452</v>
       </c>
       <c r="B28" s="252" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="226" t="s">
-        <v>490</v>
+        <v>41</v>
+      </c>
+      <c r="C28" s="223" t="s">
+        <v>456</v>
       </c>
       <c r="D28" s="157" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="E28" s="152" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="F28" s="153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G28" s="154"/>
       <c r="H28" s="153" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="I28" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J28" s="154"/>
       <c r="K28" s="154"/>
       <c r="L28" s="172" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M28" s="152" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="N28" s="155"/>
     </row>
     <row r="29" spans="1:14" s="156" customFormat="1" ht="46.8">
-      <c r="A29" s="230"/>
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
+      <c r="A29" s="227"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
       <c r="D29" s="157" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="E29" s="152" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="F29" s="153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G29" s="154" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H29" s="153" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I29" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J29" s="154"/>
       <c r="K29" s="154"/>
       <c r="L29" s="172" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M29" s="153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N29" s="155"/>
     </row>
     <row r="30" spans="1:14" s="156" customFormat="1" ht="31.2">
-      <c r="A30" s="231"/>
-      <c r="B30" s="228"/>
-      <c r="C30" s="228"/>
+      <c r="A30" s="228"/>
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
       <c r="D30" s="157" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="E30" s="152" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="F30" s="153" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G30" s="154" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="H30" s="153" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I30" s="154" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J30" s="154"/>
       <c r="K30" s="154"/>
       <c r="L30" s="172" t="s">
+        <v>43</v>
+      </c>
+      <c r="M30" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="M30" s="153" t="s">
-        <v>49</v>
-      </c>
       <c r="N30" s="155"/>
     </row>
     <row r="31" spans="1:14" s="148" customFormat="1" ht="31.2">
-      <c r="A31" s="248" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="224" t="s">
-        <v>15</v>
+      <c r="A31" s="246" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="247" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="249" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="D31" s="143" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="E31" s="144" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="F31" s="146" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="146" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="H31" s="144" t="s">
+        <v>519</v>
       </c>
       <c r="I31" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="145"/>
       <c r="L31" s="149" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M31" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N31" s="147"/>
     </row>
     <row r="32" spans="1:14" s="148" customFormat="1" ht="46.8">
-      <c r="A32" s="233"/>
-      <c r="B32" s="224"/>
-      <c r="C32" s="224"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="247"/>
+      <c r="C32" s="247"/>
       <c r="D32" s="143" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="E32" s="144" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="F32" s="146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G32" s="145" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="146" t="s">
-        <v>53</v>
+        <v>38</v>
+      </c>
+      <c r="H32" s="144" t="s">
+        <v>520</v>
       </c>
       <c r="I32" s="145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J32" s="145"/>
       <c r="K32" s="145"/>
       <c r="L32" s="149" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M32" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N32" s="147"/>
     </row>
     <row r="33" spans="1:14" s="148" customFormat="1" ht="31.2">
-      <c r="A33" s="234"/>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
+      <c r="A33" s="231"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="248"/>
       <c r="D33" s="143" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="E33" s="144" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="F33" s="146" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="145" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="146" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="H33" s="144" t="s">
+        <v>519</v>
       </c>
       <c r="I33" s="143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" s="145"/>
       <c r="K33" s="145"/>
       <c r="L33" s="149" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M33" s="146" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N33" s="147"/>
     </row>
@@ -19888,7 +19858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -19908,13 +19878,13 @@
   <sheetData>
     <row r="1" spans="1:28" ht="193.2" customHeight="1" thickBot="1">
       <c r="A1" s="261" t="s">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="B1" s="261"/>
       <c r="C1" s="261"/>
       <c r="D1" s="261"/>
       <c r="E1" s="262" t="s">
-        <v>534</v>
+        <v>499</v>
       </c>
       <c r="F1" s="262"/>
       <c r="G1" s="262"/>
@@ -19941,13 +19911,13 @@
     </row>
     <row r="2" spans="1:28" ht="50.1" customHeight="1" thickBot="1">
       <c r="A2" s="255" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="B2" s="256"/>
       <c r="C2" s="256"/>
       <c r="D2" s="257"/>
       <c r="E2" s="258" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F2" s="259"/>
       <c r="G2" s="259"/>
@@ -19974,93 +19944,93 @@
     </row>
     <row r="3" spans="1:28" s="182" customFormat="1" ht="31.8" thickBot="1">
       <c r="A3" s="177" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="178" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="178" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="180" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="181" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="183" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="187" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="187" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="187" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="187" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="187" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="187" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="187" t="s">
+        <v>141</v>
+      </c>
+      <c r="P3" s="187" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="187" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="187" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="S3" s="187" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="T3" s="187" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="179" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="180" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="181" t="s">
-        <v>502</v>
-      </c>
-      <c r="G3" s="183" t="s">
+      <c r="U3" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="187" t="s">
+      <c r="V3" s="187" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="187" t="s">
+      <c r="W3" s="187" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="187" t="s">
+      <c r="X3" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="187" t="s">
+      <c r="Y3" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="187" t="s">
+      <c r="Z3" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="187" t="s">
+      <c r="AA3" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="N3" s="187" t="s">
+      <c r="AB3" s="45" t="s">
         <v>154</v>
-      </c>
-      <c r="O3" s="187" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="187" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="187" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="187" t="s">
-        <v>158</v>
-      </c>
-      <c r="S3" s="187" t="s">
-        <v>159</v>
-      </c>
-      <c r="T3" s="187" t="s">
-        <v>160</v>
-      </c>
-      <c r="U3" s="187" t="s">
-        <v>161</v>
-      </c>
-      <c r="V3" s="187" t="s">
-        <v>162</v>
-      </c>
-      <c r="W3" s="187" t="s">
-        <v>163</v>
-      </c>
-      <c r="X3" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y3" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z3" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA3" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB3" s="45" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="29.1" customHeight="1">
       <c r="A4" s="39" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B4" s="86"/>
       <c r="C4" s="86"/>
@@ -20092,20 +20062,20 @@
     </row>
     <row r="5" spans="1:28" ht="26.4">
       <c r="A5" s="88" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="B5" s="88" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C5" s="88"/>
       <c r="D5" s="89" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E5" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="189"/>
@@ -20133,17 +20103,17 @@
     <row r="6" spans="1:28">
       <c r="A6" s="88"/>
       <c r="B6" s="88" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="C6" s="90"/>
       <c r="D6" s="89" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E6" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G6" s="41"/>
       <c r="H6" s="189"/>
@@ -20170,27 +20140,27 @@
     </row>
     <row r="7" spans="1:28" ht="39.6">
       <c r="A7" s="88" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B7" s="88" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="C7" s="90"/>
       <c r="D7" s="89" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E7" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="189" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="I7" s="189" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="J7" s="192"/>
       <c r="K7" s="194"/>
@@ -20214,20 +20184,20 @@
     </row>
     <row r="8" spans="1:28" ht="26.4">
       <c r="A8" s="88" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="C8" s="90"/>
       <c r="D8" s="89" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E8" s="174" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="189"/>
@@ -20255,17 +20225,17 @@
     <row r="9" spans="1:28">
       <c r="A9" s="88"/>
       <c r="B9" s="88" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="C9" s="90"/>
       <c r="D9" s="89" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E9" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="189"/>
@@ -20293,17 +20263,17 @@
     <row r="10" spans="1:28">
       <c r="A10" s="88"/>
       <c r="B10" s="88" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="C10" s="90"/>
       <c r="D10" s="89" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="E10" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="189"/>
@@ -20330,7 +20300,7 @@
     </row>
     <row r="11" spans="1:28" ht="31.2" customHeight="1">
       <c r="A11" s="39" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
@@ -20362,18 +20332,18 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="88" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="B12" s="88"/>
       <c r="C12" s="88"/>
       <c r="D12" s="89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E12" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="189"/>
@@ -20401,17 +20371,17 @@
     <row r="13" spans="1:28" ht="39.6">
       <c r="A13" s="88"/>
       <c r="B13" s="88" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="C13" s="88"/>
       <c r="D13" s="89" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E13" s="174" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="189"/>
@@ -20439,17 +20409,17 @@
     <row r="14" spans="1:28" ht="26.4">
       <c r="A14" s="88"/>
       <c r="B14" s="88" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="C14" s="88"/>
       <c r="D14" s="89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E14" s="174" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="189"/>
@@ -20476,23 +20446,23 @@
     </row>
     <row r="15" spans="1:28" ht="66">
       <c r="A15" s="88" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="B15" s="88" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="C15" s="88"/>
       <c r="D15" s="89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E15" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H15" s="189"/>
       <c r="I15" s="189"/>
@@ -20518,23 +20488,23 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="88" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B16" s="88" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="C16" s="88"/>
       <c r="D16" s="89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E16" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H16" s="189"/>
       <c r="I16" s="189"/>
@@ -20560,23 +20530,23 @@
     </row>
     <row r="17" spans="1:28" ht="26.4">
       <c r="A17" s="91" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="C17" s="91"/>
       <c r="D17" s="89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E17" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H17" s="189"/>
       <c r="I17" s="189"/>
@@ -20603,20 +20573,20 @@
     <row r="18" spans="1:28" ht="26.4">
       <c r="A18" s="91"/>
       <c r="B18" s="91" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="C18" s="91"/>
       <c r="D18" s="89" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E18" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H18" s="189"/>
       <c r="I18" s="189"/>
@@ -20642,23 +20612,23 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="91" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E19" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H19" s="189"/>
       <c r="I19" s="189"/>
@@ -20685,18 +20655,18 @@
     <row r="20" spans="1:28" ht="39.6">
       <c r="A20" s="91"/>
       <c r="B20" s="91" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="C20" s="91"/>
       <c r="D20" s="89"/>
       <c r="E20" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="H20" s="189"/>
       <c r="I20" s="189"/>
@@ -20723,20 +20693,20 @@
     <row r="21" spans="1:28" ht="52.8">
       <c r="A21" s="91"/>
       <c r="B21" s="91" t="s">
-        <v>517</v>
+        <v>482</v>
       </c>
       <c r="C21" s="91"/>
       <c r="D21" s="89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E21" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H21" s="189"/>
       <c r="I21" s="189"/>
@@ -20762,7 +20732,7 @@
     </row>
     <row r="22" spans="1:28" ht="30" customHeight="1">
       <c r="A22" s="39" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
@@ -20794,20 +20764,20 @@
     </row>
     <row r="23" spans="1:28" ht="55.2" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C23" s="91"/>
       <c r="D23" s="91" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E23" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="189"/>
@@ -20834,33 +20804,33 @@
     </row>
     <row r="24" spans="1:28" ht="52.8">
       <c r="A24" s="91" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C24" s="91"/>
       <c r="D24" s="91" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E24" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="189" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="I24" s="189" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="J24" s="193" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="K24" s="193" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="L24" s="189"/>
       <c r="M24" s="189"/>
@@ -20882,7 +20852,7 @@
     </row>
     <row r="25" spans="1:28" ht="41.1" customHeight="1">
       <c r="A25" s="39" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
@@ -20914,27 +20884,27 @@
     </row>
     <row r="26" spans="1:28" ht="56.1" customHeight="1">
       <c r="A26" s="91" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="B26" s="91" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="C26" s="91"/>
       <c r="D26" s="91" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E26" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="189" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="I26" s="189" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="J26" s="193"/>
       <c r="K26" s="193"/>
@@ -20958,31 +20928,31 @@
     </row>
     <row r="27" spans="1:28" ht="39.6">
       <c r="A27" s="91" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="B27" s="91"/>
       <c r="C27" s="91"/>
       <c r="D27" s="91" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E27" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="189" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="I27" s="189" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="J27" s="193" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="K27" s="193" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="L27" s="189"/>
       <c r="M27" s="189"/>
@@ -21004,23 +20974,23 @@
     </row>
     <row r="28" spans="1:28" ht="26.4">
       <c r="A28" s="91" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="B28" s="88" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="C28" s="91"/>
       <c r="D28" s="91" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E28" s="174" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="H28" s="189"/>
       <c r="I28" s="189"/>
@@ -21046,27 +21016,27 @@
     </row>
     <row r="29" spans="1:28" ht="26.4">
       <c r="A29" s="91" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C29" s="91"/>
       <c r="D29" s="91" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="E29" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G29" s="42"/>
       <c r="H29" s="189" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="I29" s="189" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="J29" s="193"/>
       <c r="K29" s="193"/>
@@ -21090,7 +21060,7 @@
     </row>
     <row r="30" spans="1:28" ht="41.1" customHeight="1">
       <c r="A30" s="39" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B30" s="86"/>
       <c r="C30" s="86"/>
@@ -21122,39 +21092,39 @@
     </row>
     <row r="31" spans="1:28" ht="26.4">
       <c r="A31" s="91" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="B31" s="91" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="C31" s="91"/>
       <c r="D31" s="91" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E31" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G31" s="42"/>
       <c r="H31" s="189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I31" s="189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J31" s="193" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="K31" s="193" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="L31" s="189" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="M31" s="189" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="N31" s="193"/>
       <c r="O31" s="193"/>
@@ -21175,24 +21145,24 @@
     <row r="32" spans="1:28" ht="26.4">
       <c r="A32" s="91"/>
       <c r="B32" s="91" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="C32" s="91"/>
       <c r="D32" s="91" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E32" s="174" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I32" s="189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J32" s="193"/>
       <c r="K32" s="193"/>
@@ -21216,31 +21186,31 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="91" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B33" s="91"/>
       <c r="C33" s="91"/>
       <c r="D33" s="91" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E33" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="G33" s="42"/>
       <c r="H33" s="189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I33" s="189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J33" s="193" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="K33" s="193" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="L33" s="189"/>
       <c r="M33" s="189"/>
@@ -21262,31 +21232,31 @@
     </row>
     <row r="34" spans="1:28" ht="39.6">
       <c r="A34" s="91" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B34" s="91"/>
       <c r="C34" s="91"/>
       <c r="D34" s="91" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E34" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I34" s="189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J34" s="193" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="K34" s="193" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="L34" s="189"/>
       <c r="M34" s="189"/>
@@ -21308,82 +21278,82 @@
     </row>
     <row r="35" spans="1:28" ht="26.4">
       <c r="A35" s="91" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D35" s="91" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E35" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F35" s="85" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="H35" s="189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I35" s="189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L35" s="189"/>
       <c r="M35" s="189"/>
     </row>
     <row r="36" spans="1:28" ht="26.4">
       <c r="A36" s="91" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E36" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F36" s="85" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="H36" s="189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I36" s="189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="J36" s="193" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="K36" s="193" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="L36" s="189"/>
       <c r="M36" s="189"/>
     </row>
     <row r="37" spans="1:28" ht="26.4">
       <c r="A37" s="91" t="s">
-        <v>531</v>
+        <v>496</v>
       </c>
       <c r="D37" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="174" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="85" t="s">
         <v>231</v>
       </c>
-      <c r="E37" s="174" t="s">
-        <v>243</v>
-      </c>
-      <c r="F37" s="85" t="s">
-        <v>246</v>
-      </c>
       <c r="H37" s="189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I37" s="189" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L37" s="189"/>
       <c r="M37" s="189"/>
     </row>
     <row r="38" spans="1:28" ht="36" customHeight="1">
       <c r="A38" s="39" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
@@ -21408,18 +21378,18 @@
     </row>
     <row r="39" spans="1:28" ht="26.4">
       <c r="A39" s="91" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B39" s="91"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E39" s="174" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F39" s="91" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="189"/>
@@ -21439,16 +21409,16 @@
     </row>
     <row r="40" spans="1:28">
       <c r="B40" s="91" t="s">
-        <v>532</v>
+        <v>497</v>
       </c>
       <c r="D40" s="91" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E40" s="174" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F40" s="85" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -21496,7 +21466,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21">
       <c r="A1" s="76" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="77"/>
@@ -21526,15 +21496,15 @@
       <c r="A3" s="81"/>
       <c r="B3" s="20"/>
       <c r="C3" s="264" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D3" s="264"/>
       <c r="E3" s="264"/>
       <c r="F3" s="35" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
@@ -21544,18 +21514,18 @@
     <row r="4" spans="1:11" ht="15.6">
       <c r="A4" s="81"/>
       <c r="B4" s="24" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C4" s="263" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D4" s="263"/>
       <c r="E4" s="263"/>
       <c r="F4" s="24" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -21565,15 +21535,15 @@
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="81"/>
       <c r="B5" s="24" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C5" s="263" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="D5" s="263"/>
       <c r="E5" s="263"/>
       <c r="F5" s="24" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="20"/>
@@ -21584,15 +21554,15 @@
     <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="81"/>
       <c r="B6" s="24" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C6" s="263" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D6" s="263"/>
       <c r="E6" s="263"/>
       <c r="F6" s="24" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="20"/>
@@ -21603,7 +21573,7 @@
     <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="81"/>
       <c r="B7" s="24" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C7" s="263"/>
       <c r="D7" s="263"/>
@@ -21618,7 +21588,7 @@
     <row r="8" spans="1:11" ht="15.6">
       <c r="A8" s="81"/>
       <c r="B8" s="24" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C8" s="263"/>
       <c r="D8" s="263"/>
@@ -21846,7 +21816,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="4" customFormat="1" ht="21">
       <c r="A1" s="33" t="s">
-        <v>536</v>
+        <v>501</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="25"/>
@@ -21862,13 +21832,13 @@
       <c r="A2" s="17"/>
       <c r="B2" s="20"/>
       <c r="C2" s="25" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="20"/>
@@ -21879,12 +21849,12 @@
     <row r="3" spans="1:25" s="4" customFormat="1" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="24" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
       <c r="E3" s="263" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F3" s="263"/>
       <c r="G3" s="263"/>
@@ -21895,12 +21865,12 @@
     <row r="4" spans="1:25" s="4" customFormat="1" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="24" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="263" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F4" s="263"/>
       <c r="G4" s="263"/>
@@ -21911,12 +21881,12 @@
     <row r="5" spans="1:25" s="4" customFormat="1" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="24" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
       <c r="E5" s="263" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F5" s="263"/>
       <c r="G5" s="263"/>
@@ -21927,7 +21897,7 @@
     <row r="6" spans="1:25" s="4" customFormat="1" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="24" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -21941,7 +21911,7 @@
     <row r="7" spans="1:25" s="4" customFormat="1" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="24" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -23450,14 +23420,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD78B9C3-ACF0-482A-B6B8-769661F719E4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="9c610b5e-76ac-442c-ab82-0748bb30360c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dc93b81b-3fb4-4ea7-b7a6-f13725f3badf"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc93b81b-3fb4-4ea7-b7a6-f13725f3badf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
